--- a/DOWNLOADS/EDITAIS/U_10001_E_900642025/U_10001_E_900642025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_10001_E_900642025/U_10001_E_900642025_master.xlsx
@@ -136,52 +136,52 @@
     <t>Mesa Áudio / Vídeo - Switcher De Vídeo Mesa Áudio / Vídeo - Switcher De Vídeo Quantidade Canais: 8UN, Tipo Entrada: Conectores Xlr E P10, Equalização: Paramétricas, Tensão Alimentação: BivoltV, Acessórios: Cabo Alimentação, Cabo Usb, Software De Controle</t>
   </si>
   <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: (Não especificado). CARACTERÍSTICA(S): bolsa ou mochila para transporte de conjunto de câmera fotográfica DSLR (full frame), lente objetiva 24-70 mm e lente objetiva 50 mm; revestimento externo impermeável; com acolchoamento interno para absorção de impactos; com 1 (uma) alça de mão e 1 (uma) alça de ombro regulável; com divisões internas removíveis (permitindo capacidade para divisão em pelo menos 3 áreas); mínimo de 1 (um) bolso externo fechável com zíper; dimensões máximas de 200 x 300 x 450mm (altura x largura x comprimento). COR: preta. COMPATIBILIDADE: total com conjunto de câmera Canon EOS 6D Mark II, lente Canon EF 24-70mm F/2.8L II USM e lente Canon EF 50mm F/1.4. GARANTIA MÍNIMA: 3 (três) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 1</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: ZHIYUN/CRANE 2S; FEIYU/SCORP 2; DJI/RSC 2. CARACTERÍSTICA(S): - estabilizador motorizado do tipo gimbal de 3 eixos, para operação com câmeras do tipo DSLR e cinematográficas compactas; - para operação com uma mão ("one-handed"); - capacidade de carga máxima igual ou superior a 2,5 kg (dois quilos e meio); - controle de pan (360 graus), tilt (mínimo de 300 graus) e roll (mínimo de 300 graus), com possibilidade de controle remoto via Bluetooth; - possuir controle do tipo “wheel”; - possuir motores angulados em relação ao ponto de instalação da câmera, de forma a não obstruir a visão da tela da câmera quando estiver em operação no gimbal; - possuir corpo em ligas metálicas leves, baseadas em alumínio, magnésio ou fibra de carbono; - alimentação através de bateria recarregável. ACESSÓRIO(S): - mala ou case para transporte; - bandeja para conexão ajustável da câmera ao gimbal (“camera plate”), compatível com câmera do tipo DSLR; - demais acessórios que se fizerem necessários ao atendimento dos requisitos. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 1</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: DJI/OSMO MOBILE 6; FEIYU/SPG 2; ZHIYUN/SMOOTH 5S. CARACTERÍSTICA(S): - estabilizador motorizado do tipo gimbal de 3 eixos, de mão (“handheld”), para captação de vídeo através de smartphones; - realizar calibração automática para estabilização do sistema; - permitir controle de pan (faixa mínima: -150º a +150º) e tilt (faixa mínima: -125º a +35º) através de joystick integrado ao corpo do estabilizador; - permitir iniciar e parar a gravação diretamente a partir do corpo do estabilizador; - opções de operação em modo retrato ou paisagem nativamente, sem necessidade de adaptadores; - possuir aplicativo compatível com sistemas iOS e Android para controle, configuração e operação do estabilizador através do smartphone, com conexão através de bluetooth; - compatível para uso com smartphones com tela de até 6,5" e peso de até 210g; - possuir função de rastreamento de rosto, acompanhando sua movimentação no enquadramento da gravação; - possuir corpo em liga metálica; - bateria recarregável de polímero de íons, com capacidade mínima de 980 mAh (novecentos e oitenta miliampere-hora), recarregável através de conexão com cabo USB no corpo do estabilizador ou através de carregador externo; - permitir a montagem em tripés e monopés com rosca universal de ¼” (um quarto de polegada), nativamente ou através de adaptador. ACESSÓRIOS: - mala ou case para transporte; - suporte para adaptação e montagem de estabilizador em tripés caso necessário (conexão com rosca de 1/4"); - contra-peso para estabilização do estabilizador e smartphone, caso necessário; - carregador de baterias externo; - demais acessórios que se fizerem necessários ao atendimento dos requisitos. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 1</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: BOSS/WL-30XLR; XVIVE/U3; SENNHEISER/XSW-D. CARACTERÍSTICA(S): kit composto por transmissor sem fio, com conexão a microfone de mão (“handheld”), e receptor sem fio, conectável a entrada de áudio XLR-3. CARACTERÍSTICAS DO TRANSMISSOR: alcance de transmissão de pelo menos 25 metros; entrada do tipo XLR-3, para conexão em saída XLR-3 de microfone; alimentação por pilhas (ou baterias) alcalinas e/ou recarregáveis. CARACTERÍSTICAS DO RECEPTOR: portátil, alimentado por pilhas (ou baterias) alcalinas e/ou recarregáveis; saída de áudio balanceada do tipo XLR-3, para conexão em entrada XLR-3 de amplificador/mixer; frequência de transmissão na faixa de 2,4 GHZ; capacidade de busca por canais livres. ACESSÓRIO(S): carregador de baterias, compatível com o aparelho, se o equipamento utilizar pilhas recarregáveis. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 1</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: LOGITECH/R500; MULTILASER/AC294; KENSINGTON/K72367BR. DESCRIÇÃO: apresentador sem fio com apontador laser para uso com PCs. CARACTERÍSTICA(S): do tipo controle remoto; apontador com laser na cor vermelha ou verde, com botão de acionamento; dispositivo "plug-and-play", sem necessidade de "drivers"; apresentador com no mínimo 2 botões de ação ('para frente' e 'para trás'); comunicação por RF na frequência de faixa de 2.4 GHz; distância máxima de operação (entre apresentador e receptor) de pelo menos 20 metros. ACESSÓRIO(S): conjunto de pilhas e/ou baterias adequadas para a alimentação do dispositivo. COMPATIBILIDADE: com sistema operacional Windows 10. GARANTIA MÍNIMA: 12 (doze) meses contados da data do recebimento definitivo do material. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 5</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: NIKON/D5600; CANON/REBEL SL3; PENTAX/KF. CARACTERÍSTICA(S): câmera fotográfica digital do tipo reflex, com lente intercambiável e visor óptico (DSLR); dispositivo de imagem CMOS, APS-C ou full frame (35 mm), com, no mínimo, 20 MP (mega pixels); lente objetiva abrangendo no mínimo a faixa de 18 a 50 mm; sensibilidade ajustável na faixa (mínima) de 100 a 12800 ISO; velocidade do obturador variando pelo menos de 1/4000s (um quatro mil avos de segundo) até 30s (trinta segundos); suporte a foco automático e manual, com sistema de foco automático contínuo de pelo menos 9 (nove) pontos de detecção; armazenamento digital de fotos nos formatos RAW e JPEG; capacidade de disparo contínuo de pelo menos 5 quadros por segundo, em resolução máxima; suporte a balanço de branco automático ou manual; dispositivo para visualização de imagem tipo LCD, LED ou OLED, em cores, com diagonal mínima de 3” (três polegadas); visor (“viewfinder”) fixo ao nível do olho, óptico, com cobertura de imagem de 95% (noventa e cinco por cento) ou superior; armazenamento em cartão de memória SD/SDHC/SDXC; alimentação com bateria recarregável, com capacidade de pelo menos 1000 mAh (mil miliampere-hora); flash integrado, com possibilidade de uso de flash externo via hot shoe; entrada para microfone externo; conexão por WiFi para transferência de arquivos; comunicação com PC por meio de conexão USB. ACESSÓRIO(S): 2 (dois) cartões de memória de no mínimo 64GB cada, padrão SDXC ou superior, compatíveis com a câmera, com classificação de velocidade UHS-I (classe U1 ou superior); 1 (um) leitor de cartões SD/SDHC/SDXC, com conexão USB para uso com PC; 2 (duas) baterias recarregáveis (a que vem como padrão da câmera e uma extra, com capacidade igual ou superior); 1 (um) carregador de bateria (bivolt ou universal); 1 (um) cabo de comunicação USB; 1 (uma) alça para câmera; 1 (uma) tampa para corpo; acesso a software e manual de operação; todos os itens devem ser originais de fabricante (exceto os cartões de memória e o leitor de cartões) e compatíveis com o modelo ofertado. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo do material. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do equipamento. Unidade: UNIDADE. Quantidade: 1</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: LOGITECH/G432; JBL/QUANTUM 400; RAZER/BLACKSHARK V2. CARACTERÍSTICA(S): fone de ouvido estéreo (binaural), com câmaras acústicas do tipo circumaural (fechadas ou semiabertas, "over-the-ear"); arco do fone de ouvido com ajuste para a cabeça; resposta mínima em frequência do fone de 50Hz a 18KHz; microfone direcional com haste ajustável, com resposta mínima em frequência de 100Hz a 10KHz; conexão por fio; cabo com ligação a apenas um dos lados do headset, de comprimento mínimo de 1,5m; conector de áudio do tipo USB-A. COR(ES): corpo do headset na cor (principal) preta. COMPATIBILIDADE: com sistema operacional Windows 10. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 1</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: BENQ/TH575; INTELBRAS/PFL6410; VIEWSONIC/PX701HDH. CARACTERÍSTICA(S): lâmpada com emissão ("brightness") mínima de 3500 lúmens ANSI; resolução nativa mínima de 1920 x 1080 (Full HD); correção de paralaxe vertical ("keystone correction"), com capacidade de ajuste pelo controle (menu); entrada digital HDMI, com capacidade para sinais até 1080p; entrada de áudio; ajustes de zoom ótico (se houver) e foco; recurso de inversão da imagem para instalação em teto ("ceiling mount"); capacidade para abrir uma imagem (proporção 16:9, com possível uso de zoom ótico) de 1,50m de largura em alguma distância entre o projetor e a tela na faixa de 2,00m a 2,40m; controle remoto tipo infravermelho. TENSÃO: 110/220 Vac, 60 Hz, com seleção automática; o conector deve ser compatível com tomada padrão NBR 14136 (ABNT NBR 14136:2012 Versão Corrigida 4:2013) ou deve ser fornecido adaptador. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 1</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: BEHRINGER/HPM-1000; AKG/K52; SAMSON/SR350. CARACTERÍSTICA(S): fone de ouvido circumaural (over-ear) estereofônico dinâmico do tipo fechado; protetor e arco do fone acolchoados; arco com ajuste de tamanho; conexão por cabo único, unilateral; resposta mínima em frequência de 20Hz a 20KHz; sensibilidade de 105dB a 1KHz / 1mW, ou melhor; cabo com tamanho mínimo de 2m (dois metros); conector do tipo P2 estéreo de 1/8" (um oitavo de polegada). ACESSÓRIO(S): adaptador para conector do tipo P10 estéreo de 1/4" (um quarto de polegada). GARANTIA MÍNIMA: 3 (três) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: PEÇA. Quantidade: 20</t>
-  </si>
-  <si>
-    <t>MARCA/MODELO: RASPBERRY/PI 5. CARACTERÍSTICA(S): processador quad core com frequência de 2,4GHz; memória RAM de 4GB ou maior; conectividade Wi-Fi 2.4GHz e 5.0GHz padrão 802.11 b/g/n/ac, com certificação Anatel; interface Gigabit Ethernet RJ45; slot para cartão de memória tipo MicroSD; 2 saídas micro-HDMI; 2 portas USB 2.0; 2 portas USB 3.0; alimentação por meio de conector USB-C; GPU com capacidade para decodificação de vídeos H.264 em resolução 4kp60. ACESSÓRIO(S): cartão de memória tipo MicroSD de 32GB classe 10 ou melhor; fonte de alimentação original de fabricante para o modelo Pi 5 ('RASPBERRY PI 27W USB-C POWER SUPPLY'), com entrada 220V/60Hz e plugue no padrão brasileiro (sem uso de adaptadores) - fonte com saída de 5V e capacidade de corrente de 5A (ou maior) em conector tipo USB-C; 1 case original de fabricante ('RASPBERRY PI CASE FOR RASPBERRY PI 5'), com ventoinha inclusa e todas as furações compatíveis com as portas do microcontrolador; 1 cabo HDMI x microHDMI com, no mínimo, 1m de comprimento. GARANTIA MÍNIMA: 12 (doze) meses, contados a partir da data de recebimento definitivo. Unidade: UNIDADE. Quantidade: 35</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: SENNHEISER/HD 280 PRO; BEYERDYNAMIC/ DT 770 PRO. CARACTERÍSTICA(S): do tipo fone de ouvido de referência para mixagem; circumaural, de câmara fechada; atenuação mínima de ruídos externos de 18dB; resposta em frequência mínima de 8Hz a 25kHz; conector P10 (6.35mm) estéreo, ou conector P2 (3.5mm) estéreo com adaptador do tipo rosqueável P2 para P10; impedância de entrada entre 60 ohms e 100 ohms; distorção harmônica total (THD) menor que 0,2%; sensibilidade mínima de 95dB SPL (em 1kHz) na entrada; cabo com no mínimo 1,20m de comprimento. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 10</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: XIAOMI/POWER BANK REDMI 20000MAH; ANKER/POWERCORE 20K; GEONAV/PB20KWT. CARACTERÍSTICA(S): banco de baterias portátil; com baterias de polímero de lítio (Li-Po); carregamento por conector USB tipo C; mínimo de 2 (duas) saídas para carregamento de dispositivos através de conector padrão USB tipo A, com capacidade de corrente de até 2A por porta de saída (uso simultâneo); display ou leds indicativos de carga das baterias; circuito interno de proteção contra sobrecarga, sobretensão e curto-circuito; peso máximo de 500g; homologação da Anatel. CAPACIDADE: 20000 mAh (mínimo). ACESSÓRIO(S): cabo USB-C para carregamento. GARANTIA MÍNIMA: 3 (três) meses, contados da data de recebimento definitivo do material. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: PEÇA. Quantidade: 2</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: LOGITECH/C930E; AVERMEDIA/PW315; RAZER/KIYO PRO. CARACTERÍSTICA(S): geração de vídeo em 1080p @ 30 fps (FullHD em vídeo progressivo a 30 quadros por segundo) ou superior; resolução nativa do sensor de 1920x1080 (2 Megapixels) ou superior; campo de visão diagonal mínimo de 90 graus (lente grande angular); ajuste físico de tilt de ao menos 30 graus e de pan de 360 graus (se a câmera não os possuir nativamente, deve possuir rosca de 1/4" para suporte de mesa ou tripé compatível, capaz de tais ajustes, a ser fornecido em conjunto); captação de áudio estéreo com 2 microfones omnidirecionais integrados; LED frontal indicativo de captura em andamento; interface lógica UVC - USB Video Class (PnP e nativamente compatível, sem necessidade de driver extra, com Windows 10 e softwares de comunicação, conferência, captura e transmissão de vídeo em tempo real, além de aplicações web congêneres executadas em navegador); conector USB Type-A macho com cabo de ao menos 1,5m de comprimento (caso a interface com o computador utilize outro padrão de conector, deverá ser fornecido adaptador de boa qualidade e compatível com as taxas de transmissão da câmera). ACESSÓRIO(S): instruções de uso em português ou inglês (em manual impresso ou digital). GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 4</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: BEHRINGER/MEDIA 40USB; ALESIS/ELEVATE 5; MACKIE/CR4. CARACTERÍSTICA(S): kit formado por par de caixas amplificadas tipo monitor, com no mínimo duas vias (graves e agudos) cada; potência mínima de 20 watts por caixa; alto-falante de graves com diâmetro mínimo de 4" (polegadas); resposta mínima em frequência de 80 Hz a 20 kHz; mínimo de uma entrada analógica estéreo (L/R) em nível de linha em conectores do tipo XLR-3 ou jack de 1/4"; controle de volume frontal; saída para fone de ouvido; dimensões máximas de 300 mm x 200 mm x 250 mm (altura x largura x profundidade). TENSÃO: 220 Vac, 60 Hz; o conector de alimentação deve ser compatível com tomada padrão NBR 14136 ou deve ser fornecido adaptador. ACESSÓRIO(S): deverá ser fornecido cabo de interligação das caixas acústicas. GARANTIA MÍNIMA: 12 (doze) meses, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original do fabricante. Unidade: UNIDADE. Quantidade: 4</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: TSI/TSI-1200-UHF; STANER/SRW-48D; TAGIMA/TMJ-800. CARACTERÍSTICA(S): kit composto por 2 (duas) unidades de microfone de mão (“handheld”) com transmissor sem fio embutido, e 1 (um) receptor sem fio de mesa; resposta mínima em frequência do sistema de 100 Hz a 15 kHz; o sistema deve ser homologado na Anatel. CARACTERÍSTICAS DOS MICROFONES: - microfone de mão, para vocais; - transdutor do tipo dinâmico; - módulo transmissor incorporado ao corpo do microfone. CARACTERÍSTICAS DO TRANSMISSOR: - potência de transmissão de no mínimo 10 mW (dez miliwatts); - frequência de transmissão na faixa de UHF, totalmente compatível com a frequência de operação do receptor a ser fornecido; - alimentação por pilhas tamanho AA. CARACTERÍSTICAS DO RECEPTOR: - portátil e apropriado para montagem em mesa; - com display digital multifuncional (com informação simultânea sobre cada microfone), que permita visualização de status e realização de configurações do sistema; - mínimo de 2 saídas de áudio balanceadas em conector XLR-3 (1 para cada microfone); - frequência de transmissão na faixa de UHF, entre 470-608 MHz e/ou 614-698 MHz (faixas autorizadas pela Anatel), com capacidade de escolha do canal de operação entre mais de 45 (quarenta) canais; - que utilize antenas externas para recepção. TENSÃO: 220 V, 60 Hz; o conector deve ser compatível com tomada padrão NBR 14136 ou deve ser fornecido adaptador. ACESSÓRIO(S): 2 (dois) pedestais de mesa para microfone, com as seguintes características: base metálica em ferro fundido, haste metálica não flexível/articulada (com eixo no centro da base), altura mínima entre 20 cm e 40 cm, suporte universal do tipo cachimbo (com rosca metálica) para microfone e peso mínimo de 1,2 kg. GARANTIA MÍNIMA: 12 (doze) meses de fábrica, contados da data do recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação do material. Unidade: UNIDADE. Quantidade: 8</t>
-  </si>
-  <si>
-    <t>MARCA(S)/MODELO(S) DE REFERÊNCIA: BEHRINGER/UMC404HD; TASCAM/US-4X4HR; STEINBERG/UR44C. CARACTERÍSTICA(S): interface de áudio para microcomputador padrão PC, compatível com sistema operacional Windows 10; mínimo de 4 entradas analógicas balanceadas de microfone/linha; mínimo de 2 saídas analógicas balanceadas em nível de linha; entradas em conectores do tipo XLR-3 e TRS 1/4" (ou combo XLR/TRS), e saídas em conectores XLR-3 ou TRS 1/4"; controle de nível para cada entrada; saída para fone de ouvido em conector TRS 1/4"; alimentação para microfones do tipo condensador (phantom power); porta USB para conexão com microcomputador; amostragem com resolução de 24-bit/48kHz ou melhor; capacidade de encaminhar os sinais diretamente das entradas para as saídas, sem passagem pelo PC, para monitoramento sem latência; controles, chaves e conectores dispostos no painel frontal e/ou traseiro (não serão admitidos com controles no painel superior pois essa disposição impede o empilhamento dos equipamentos); alimentação através de fonte de alimentação conectada à rede 220V/60Hz; gabinete metálico. ACESSÓRIO(S): fonte de alimentação, original do equipamento, com entrada compatível com 220V/60Hz. GARANTIA MÍNIMA: 12 (doze) meses, contados da data de recebimento definitivo. ACONDICIONAMENTO: embalagem original de fábrica, com identificação e quantidade do material. Unidade: UNIDADE. Quantidade: 4</t>
+    <t>Item 1 - Bolsa Fotográfica Profissional para conjunto de câmera e 2 lentes – participação exclusiva ME/EPP caracteristica(S): bolsa ou mochila para transporte de conjunto de câmera fotográfica DSLR (full frame), lente objetiva 24-70 mm e lente objetiva 50 mm; revestimento externo impermeável; com acolchoamento interno para absorção de impactos; com 1 (uma) alça de mão e 1 (uma) alça de ombro regulável; com divisões internas removíveis (permitindo capacidade para divisão em pelo menos 3 áreas); mínimo de 1 (um) bolso externo fechável com zíper; dimensões máximas de 200 x 300 x 450mm (altura x largura x comprimento). Cor: preta. Compatibilidade: total com conjunto de câmera Canon EOS 6D Mark II, lente Canon EF 24-70mm F/2.8L II USM e lente Canon EF 50mm F/1.4. Garantia mínima: 3 (três) meses, contados da data do recebimento definitivo. Acondicionamento embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 1</t>
+  </si>
+  <si>
+    <t>Item 2 - Estabilizador (Gimbal) de câmera DSLR – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: Zhiyun/Cran 2S; Feiyu/Scorp 2; DJI/RSC 2 caracteristica(s): estabilizador motorizado do tipo gimbal de 3 eixos, para operação com câmeras do tipo DSLR e cinematográficas compactas; para operação com uma mão ("one-handed"); capacidade de carga máxima igual ou superior a 2,5 kg (dois quilos e meio); controle de pan (360 graus), tilt (mínimo de 300 graus) e roll (mínimo de 300 graus), com possibilidade de controle remoto via Bluetooth; possuir controle do tipo “wheel”; possuir motores angulados em relação ao ponto de instalação da câmera, de forma a não obstruir a visão da tela da câmera quando estiver em operação no gimbal; possuir corpo em ligas metálicas leves, baseadas em alumínio, magnésio ou fibra de carbono; alimentação através de bateria recarregável. Acessório(s): mala ou case para transporte; bandeja para conexão ajustável da câmera ao gimbal (“camera plate”), compatível com câmera do tipo DSLR; demais acessórios que se fizerem necessários ao atendimento dos requisitos. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 1</t>
+  </si>
+  <si>
+    <t>Item 3 - Estabilizador (Gimbal) de câmera Smartphone – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: DJI/OSMO MOBILE 6; Feiyu/SPG 2; ZHIYUN/SMOOTH 5S caracteristica(s): estabilizador motorizado do tipo gimbal de 3 eixos, de mão (“handheld”), para captação de vídeo através de smartphones; realizar calibração automática para estabilização do sistema; permitir controle de pan (faixa mínima: -150º a +150º) e tilt (faixa mínima: -125º a +35º) através de joystick integrado ao corpo do estabilizador; permitir iniciar e parar a gravação diretamente a partir do corpo do estabilizador; opções de operação em modo retrato ou paisagem nativamente, sem necessidade de adaptadores; possuir aplicativo compatível com sistemas iOS e Android para controle, configuração e operação do estabilizador através do smartphone, com conexão via bluetooth; compatível para uso com smartphones com tela de até 6,5" e peso de até 210g; possuir função de rastreamento de rosto, acompanhando sua movimentação no enquadramento da gravação; possuir corpo em liga metálica; bateria recarregável de polímero de íons, com capacidade mínima de 980 mAh (novecentos e oitenta miliampere-hora), recarregável através de conexão com cabo USB no corpo do estabilizador ou através de carregador externo; permitir a montagem em tripés e monopés com rosca universal de ¼” (um quarto de polegada), nativamente ou através de adaptador. Acessório(s): mala ou case para transporte; suporte para adaptação e montagem do estabilizador em tripés caso necessário (conexão com rosca de 1/4"); contra-peso para estabilização do estabilizador e smartphone, caso necessário; carregador de baterias externo; demais acessórios que se fizerem necessários ao atendimento dos requisitos. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 1</t>
+  </si>
+  <si>
+    <t>Item 4 - Adaptador sem fio para microfone – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: BOSS/WL-30XLR; XVIVE/U3; SENNHEISER/XSW-D caracteristica(s): kit composto por transmissor sem fio, com conexão a microfone de mão (“handheld”), e receptor sem fio, conectável a entrada de áudio XLR-3. Características do transmissor: alcance de transmissão de pelo menos 25 metros; entrada do tipo XLR-3, para conexão em saída XLR-3 de microfone; alimentação por pilhas (ou baterias) alcalinas e/ou recarregáveis. Características do receptor: portátil, alimentado por pilhas (ou baterias) alcalinas e/ou recarregáveis; saída de áudio balanceada do tipo XLR-3, para conexão em entrada XLR-3 de amplificador/mixer; frequência de transmissão na faixa de 2,4 GHz; capacidade de busca por canais livres. Acessório(s): carregador de baterias, compatível com o aparelho, se o equipamento utilizar pilhas recarregáveis. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 1</t>
+  </si>
+  <si>
+    <t>Item 5 - Apresentador sem fio com apontador laser – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: LOGITECH/R500; MULTILASER/AC294; KENSINGTON/K72367BR. Descrição: apresentador sem fio com apontador laser para uso com PCs. Característica(s): do tipo controle remoto; apontador com laser na cor vermelha ou verde, com botão de acionamento; dispositivo “plug-and-play”, sem necessidade de “drivers”; apresentador com no mínimo 2 botões de ação ('para frente' e 'para trás'); comunicação por RF na frequência de faixa de 2.4 GHz; distância máxima de operação (entre apresentador e receptor) de pelo menos 20 metros. Acessório(s): conjunto de pilhas e/ou baterias adequadas para a alimentação do dispositivo. Compatibilidade: com sistema operacional Windows 10. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo do material. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 5</t>
+  </si>
+  <si>
+    <t>Item 6 - Câmera Fotográfica Digital – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: NIKON/D5600; CANON/REBEL SL3; PENTAX/KF. Característica(s): câmera fotográfica digital do tipo reflex, com lente intercambiável e visor óptico (DSLR); dispositivo de imagem CMOS, APS-C ou full frame (35 mm), com, no mínimo, 20 MP (mega pixels); lente objetiva abrangendo no mínimo a faixa de 18 a 50 mm; sensibilidade ajustável na faixa (mínima) de 100 a 12800 ISO; velocidade do obturador variando pelo menos de 1/4000s (um quatro mil avos de segundo) até 30s (trinta segundos); suporte a foco automático e manual, com sistema de foco automático contínuo de pelo menos 9 (nove) pontos de detecção; armazenamento digital de fotos nos formatos RAW e JPEG; capacidade de disparo contínuo de pelo menos 5 quadros por segundo, em resolução máxima; suporte a balanço de branco automático ou manual; dispositivo para visualização de imagem tipo LCD, LED ou OLED, em cores, com diagonal mínima de 3” (três polegadas); visor (“viewfinder”) fixo ao nível do olho, óptico, com cobertura de imagem de 95% (noventa e cinco por cento) ou superior; armazenamento em cartão de memória SD/SDHC/SDXC; alimentação com bateria recarregável, com capacidade de pelo menos 1000 mAh (mil miliampere-hora); flash integrado, com possibilidade de uso de flash externo via hot shoe; entrada para microfone externo; conexão por WiFi para transferência de arquivos; comunicação com PC por meio de conexão USB. Acessório(s): 2 (dois) cartões de memória de no mínimo 64GB cada, padrão SDXC ou superior, compatíveis com a câmera, com classificação de velocidade UHS‑I (classe U1 ou superior); 1 (um) leitor de cartões SD/SDHC/SDXC, com conexão USB para uso com PC; 2 (duas) baterias recarregáveis (a que vem como padrão da câmera e uma extra, com capacidade igual ou superior); 1 (um) carregador de bateria (bivolt ou universal); 1 (um) cabo de comunicação USB; 1 (uma) alça para câmera; 1 (uma) tampa para corpo; acesso a software e manual de operação; todos os itens devem ser originais de fabricante (exceto os cartões de memória e o leitor de cartões) e compatíveis com o modelo ofertado. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo do material. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do equipamento. Unidade: unidade. Quantidade: 1</t>
+  </si>
+  <si>
+    <t>Item 7 - Fone de Ouvido Headset – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: LOGITECH/G432; JBL/QUANTUM 400; RAZER/BLACKSHARK V2. Característica(s): fone de ouvido estéreo (binaural), com câmaras acústicas do tipo circumaural (fechadas ou semiabertas, “over-the-ear”); arco do fone de ouvido com ajuste para a cabeça; resposta mínima em frequência do fone de 50Hz a 18KHz; microfone direcional com haste ajustável, com resposta mínima em frequência de 100Hz a 10KHz; conexão por fio; cabo com ligação a apenas um dos lados do headset, de comprimento mínimo de 1,5m; conector de áudio do tipo USB-A. Cor(es): corpo do headset na cor (principal) preta. Compatibilidade: com sistema operacional Windows 10. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 1</t>
+  </si>
+  <si>
+    <t>Item 8 - Projetor Multimídia – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: BENQ/TH575; INTELBRAS/PFL6410; VIEWSONIC/PX701HDH. Característica(s): lâmpada com emissão (brightness) mínima de 3500 lúmens ANSI; resolução nativa mínima de 1920 x 1080 (Full HD); correção de paralaxe vertical (keystone correction), com capacidade de ajuste pelo controle (menu); entrada digital HDMI, com capacidade para sinais até 1080p; entrada de áudio; ajustes de zoom ótico (se houver) e foco; recurso de inversão da imagem para instalação em teto (ceiling mount); capacidade para abrir uma imagem (proporção 16:9, com possível uso de zoom ótico) de 1,50m de largura em alguma distância entre o projetor e a tela na faixa de 2,00m a 2,40m; controle remoto tipo infravermelho. Tensão: 110/220 Vac, 60 Hz, com seleção automática; o conector deve ser compatível com tomada padrão NBR 14136 (ABNT NBR 14136:2012 Versão Corrigida 4:2013) ou deve ser fornecido adaptador. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 1</t>
+  </si>
+  <si>
+    <t>Item 9 - Fone de Ouvido do tipo fechado – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: BEHRINGER/HPM-1000; AKG/K52; SAMSON/SR350. Característica(s): fone de ouvido circumaural (over-ear) estereofônico dinâmico do tipo fechado; protetor e arco do fone acolchoados; arco com ajuste de tamanho; conexão por cabo único, unilateral; resposta mínima em frequência de 20Hz a 20KHz; sensibilidade de 105dB a 1KHz / 1mW, ou melhor; cabo com tamanho mínimo de 2m (dois metros); conector do tipo P2 estéreo de 1/8" (um oitavo de polegada). Acessório(s): adaptador para conector do tipo P10 estéreo de 1/4" (um quarto de polegada). Garantia mínima: 3 (três) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: peça. Quantidade: 20</t>
+  </si>
+  <si>
+    <t>Item 10 - Microcontrolador Raspberry Pi 5 – participação exclusiva ME/EPP marca/máde: RASPBERRY/PI 5. Característica(s): processador quad core com frequência de 2,4GHz; memória RAM de 4GB ou maior; conectividade Wi‑Fi 2.4GHz e 5.0GHz padrão 802.11 b/g/n/ac, com certificação Anatel; interface Gigabit Ethernet RJ45; slot para cartão de memória tipo MicroSD; 2 saídas micro‑HDMI; 2 portas USB 2.0; 2 portas USB 3.0; alimentação por meio de conector USB‑C; GPU com capacidade para decodificação de vídeos H.264 em resolução 4kp60. Acessório(s): cartão de memória tipo MicroSD de 32GB classe 10 ou melhor; fonte de alimentação original de fabricante para o modelo Pi 5 (RASPBERRY PI 27W USB‑C POWER SUPPLY), com entrada 220V/60Hz e plugue no padrão brasileiro (sem uso de adaptadores) – fonte com saída de 5V e capacidade de corrente de 5A (ou maior) em conector tipo USB‑C; 1 case original de fabricante (RASPBERRY PI CASE FOR RASPBERRY PI 5), com ventoinha inclusa e todas as furações compatíveis com as portas do microcontrolador; 1 cabo HDMI x microHDMI com, no mínimo, 1m de comprimento. Garantia mínima: 12 (doze) meses, contados a partir da data de recebimento definitivo. Unidade: unidade. Quantidade: 35</t>
+  </si>
+  <si>
+    <t>Item 11 - Fone de Ouvido profissional – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: SENNHEISER/HD 280 PRO; BEYERDYNAMIC/ DT 770 PRO. Característica(s): do tipo fone de ouvido de referência para mixagem; circumaural, de câmara fechada; atenuação mínima de ruídos externos de 18dB; resposta em frequência mínima de 8Hz a 25kHz; conector P10 (6.35mm) estéreo, ou conector P2 (3.5mm) estéreo com adaptador do tipo rosqueável P2 para P10; impedância de entrada entre 60 ohms e 100 ohms; distorção harmônica total (THD) menor que 0,2%; sensibilidade mínima de 95dB SPL (em 1kHz) na entrada; cabo com no mínimo 1,20m de comprimento. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 10</t>
+  </si>
+  <si>
+    <t>Item 12 - Banco de Bateria Portátil (Power Bank) – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: XIAOMI/POWER BANK REDMI 20000MAH; ANKER/POWERCORE 20K; GEONAV/PB20KWT. Característica(s): banco de baterias portátil; com baterias de polímero de lítio (Li‑Po); carregamento por conector USB tipo C; mínimo de 2 (duas) saídas para carregamento de dispositivos através de conector padrão USB tipo A, com capacidade de corrente de até 2A por porta de saída (uso simultâneo); display ou leds indicativos de carga das baterias; circuito interno de proteção contra sobrecarga, sobretensão e curto‑circuito; peso máximo de 500g; homologação da Anatel. Capacidade: 20000 mAh (mínimo). Acessório(s): cabo USB-C para carregamento. Garantia mínima: 3 (três) meses, contados da data do recebimento definitivo do material. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: peça. Quantidade: 2</t>
+  </si>
+  <si>
+    <t>Item 13 - Câmera Webcam Grande Angular – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: LOGITECH/C930E; AVERMEDIA/PW315; RAZER/KIYO PRO. Característica(s): geração de vídeo em 1080p @ 30 fps (FullHD em vídeo progressivo a 30 quadros por segundo) ou superior; resolução nativa do sensor de 1920x1080 (2 Megapixels) ou superior; campo de visão diagonal mínimo de 90 graus (lente grande angular); ajuste físico de tilt de ao menos 30 graus e de pan de 360 graus (se a câmera não os possuir nativamente, deve possuir rosca de 1/4" para suporte de mesa ou tripé compatível, capaz de tais ajustes, a ser fornecido em conjunto); captação de áudio estéreo com 2 microfones omnidirecionais integrados; LED frontal indicativo de captura em andamento; interface lógica UVC - USB Video Class (PnP e nativamente compatível, sem necessidade de driver extra, com Windows 10 e softwares de comunicação, conferência, captura e transmissão de vídeo em tempo real, além de aplicações web congêneres executadas em navegador); conector USB Type‑A macho com cabo de ao menos 1,5m de comprimento (caso a interface com o computador utilize outro padrão de conector, deverá ser fornecido adaptador de boa qualidade e compatível com as taxas de transmissão da câmera). Acessório(s): instruções de uso em português ou inglês (em manual impresso ou digital). Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 4</t>
+  </si>
+  <si>
+    <t>Item 14 - Par de Caixas Acústicas Amplificadas – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: BEHRINGER/MEDIA 40USB; ALESIS/ELEVATE 5; MACKIE/CR4. Característica(s): kit formado por par de caixas amplificadas tipo monitor, com no mínimo duas vias (graves e agudos) cada; potência mínima de 20 watts por caixa; alto‑falante de graves com diâmetro mínimo de 4" (polegadas); resposta mínima em frequência de 80 Hz a 20 kHz; mínimo de uma entrada analógica estéreo (L/R) em nível de linha em conectores do tipo XLR‑3 ou jack de 1/4”; controle de volume frontal; saída para fone de ouvido; dimensões máximas de 300 mm x 200 mm x 250 mm (altura x largura x profundidade). Tensão: 220 Vac, 60 Hz; o conector de alimentação deve ser compatível com tomada padrão NBR 14136 ou deve ser fornecido adaptador. Acessório(s): deverá ser fornecido cabo de interligação das caixas acústicas. Garantia mínima: 12 (doze) meses, contados da data do recebimento definitivo. Acondicionamento: embalagem original do fabricante. Unidade: unidade. Quantidade: 4</t>
+  </si>
+  <si>
+    <t>Item 15 - Sistema de Microfone sem fio Dual – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: TSI/TSI‑1200‑UHF; STANER/SRW‑48D; TAGIMA/TMJ‑800. Característica(s): kit composto por 2 (duas) unidades de microfone de mão (“handheld”) com transmissor sem fio embutido, e 1 (um) receptor sem fio de mesa; resposta mínima em frequência do sistema de 100 Hz a 15 kHz; o sistema deve ser homologado na Anatel. Características dos microfones: microfone de mão, para vocais; transdutor do tipo dinâmico; módulo transmissor incorporado ao corpo do microfone. Características do transmissor: potência de transmissão de no mínimo 10 mW (dez miliwatts); frequência de transmissão na faixa de UHF, totalmente compatível com a frequência de operação do receptor a ser fornecido; alimentação por pilhas tamanho AA. Características do receptor: portátil e apropriado para montagem em mesa; com display digital multifuncional (com informação simultânea sobre cada microfone), que permita visualizaçãod status e realização de configurações do sistema; mínimo de 2 saídas de áudio balanceadas em conector XLR‑3 (1 para cada microfone); frequência de transmissão na faixa de UHF, entre 470‑608 MHz e/ou 614‑698 MHz (faixas autorizadas pela Anatel), com capacidade de escolha do canal de operação entre mais de 45 (quarenta) canais; capacidade de seleção do canal de operação; que utilize antenas externas para recepção. Acessório(s): 2 (dois) pedestais de mesa para microfone, com as seguintes características: base metálica em ferro fundido, haste metálica não flexível/articulada (com eixo no centro da base), altura mínima entre 20 cm e 40 cm, suporte universal do tipo cachimbo (com rosca metálica) para microfone e peso mínimo de 1,2 kg. Garantia mínima: 12 (doze) meses de fábrica, contados da data do recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação do material. Unidade: unidade. Quantidade: 8</t>
+  </si>
+  <si>
+    <t>Item 16 - Mixer de Áudio USB 4 Entradas – participação exclusiva ME/EPP marca(s)/modelo(s) de referência: BEHRINGER/UMC404HD; TASCAM/US‑4X4HR; STEINBERG/UR44C. Característica(s): interface de áudio para microcomputador padrão PC, compatível com sistema operacional Windows 10; mínimo de 4 entradas analógicas balanceadas de microfone/linha; mínimo de 2 saídas analógicas balanceadas em nível de linha; entradas em conectores do tipo XLR‑3 e TRS 1/4” (ou combo XLR/TRS), e saídas em conectores XLR‑3 ou TRS 1/4”; controle de nível para cada entrada; saída para fone de ouvido em conector TRS 1/4”; alimentação para microfones do tipo condensador (phantom power); porta USB para conexão com microcomputador; amostragem com resolução de 24‑bit/48kHz ou melhor; capacidade de encaminhar os sinais diretamente das entradas para as saídas, sem passagem pelo PC, para monitoramento sem latência; controles, chaves e conectores dispostos no painel frontal e/ou traseiro (não serão admitidos com controles no painel superior pois essa disposição impede o empilhamento dos equipamentos); alimentação através de fonte de alimentação conectada à rede 220V/60Hz; gabinete metálico. Acessório(s): fonte de alimentação, original do equipamento, com entrada compatível com 220V/60Hz. Garantia mínima: 12 (doze) meses, contados da data de recebimento definitivo. Acondicionamento: embalagem original de fábrica, com identificação e quantidade do material. Unidade: unidade. Quantidade: 4</t>
   </si>
   <si>
     <t>Unidade</t>
